--- a/progetto_esame/consegna_luglio/ParteI/dati_popolamento.xlsx
+++ b/progetto_esame/consegna_luglio/ParteI/dati_popolamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigeit-my.sharepoint.com/personal/s5339413_studenti_unige_it/Documents/Lezioni/02 - Basi di dati/Repository/Basi-di-dati/progetto_esame/consegna_luglio/ParteI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{56879730-33B8-42C2-98E3-9CD4BF407C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B1DFE2-9D7B-4272-9301-561405F41169}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{56879730-33B8-42C2-98E3-9CD4BF407C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39041D4-9DCC-48BB-B174-262BCB15A893}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" activeTab="7" xr2:uid="{7EAEA43A-9A7E-4F54-B5AC-FFDB57E33F01}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1312,9 +1312,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1655,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A72233A-DEE1-4A2E-8514-1CE34FA2275B}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2397,7 +2396,7 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>143</v>
       </c>
       <c r="D7">
@@ -4031,7 +4030,7 @@
       <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>33065</v>
       </c>
       <c r="G2" t="s">
@@ -4063,7 +4062,7 @@
       <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>35828</v>
       </c>
       <c r="G3" t="s">
@@ -4092,7 +4091,7 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>37685</v>
       </c>
       <c r="G4" t="s">
@@ -4124,7 +4123,7 @@
       <c r="E5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>28396</v>
       </c>
       <c r="G5" t="s">
@@ -4153,7 +4152,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>35897</v>
       </c>
       <c r="G6" t="s">
@@ -4182,7 +4181,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
       <c r="H7" t="s">
         <v>157</v>
       </c>
@@ -4206,7 +4205,7 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>32996</v>
       </c>
       <c r="G8" t="s">
@@ -4235,7 +4234,7 @@
       <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>32796</v>
       </c>
       <c r="G9" t="s">
@@ -4267,7 +4266,7 @@
       <c r="E10" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>34755</v>
       </c>
       <c r="G10" t="s">
@@ -4299,7 +4298,7 @@
       <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>30203</v>
       </c>
       <c r="G11" t="s">
@@ -4328,7 +4327,7 @@
       <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>35702</v>
       </c>
       <c r="G12" t="s">
@@ -4357,7 +4356,7 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>34110</v>
       </c>
       <c r="G13" t="s">
@@ -4386,7 +4385,7 @@
       <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>26079</v>
       </c>
       <c r="G14" t="s">
@@ -4415,7 +4414,7 @@
       <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>35053</v>
       </c>
       <c r="G15" t="s">
@@ -4447,7 +4446,7 @@
       <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>33741</v>
       </c>
       <c r="G16" t="s">
@@ -4479,7 +4478,7 @@
       <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>35767</v>
       </c>
       <c r="G17" t="s">
@@ -4511,7 +4510,7 @@
       <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>22845</v>
       </c>
       <c r="G18" t="s">
@@ -4543,7 +4542,7 @@
       <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>36526</v>
       </c>
       <c r="G19" t="s">
@@ -4575,7 +4574,7 @@
       <c r="E20" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>18751</v>
       </c>
       <c r="G20" t="s">
@@ -4604,7 +4603,7 @@
       <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
       <c r="H21" t="s">
         <v>157</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="D22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>29976</v>
       </c>
       <c r="G22" t="s">
@@ -4657,7 +4656,7 @@
       <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>37257</v>
       </c>
       <c r="G23" t="s">
@@ -4686,7 +4685,7 @@
       <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>34427</v>
       </c>
       <c r="G24" t="s">
@@ -4718,7 +4717,7 @@
       <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>34659</v>
       </c>
       <c r="G25" t="s">
@@ -4750,7 +4749,7 @@
       <c r="E26" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>35009</v>
       </c>
       <c r="G26" t="s">
@@ -4782,7 +4781,7 @@
       <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>36814</v>
       </c>
       <c r="G27" t="s">
@@ -4814,7 +4813,7 @@
       <c r="E28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>34420</v>
       </c>
       <c r="G28" t="s">
@@ -4843,7 +4842,7 @@
       <c r="D29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
       <c r="H29" t="s">
         <v>157</v>
       </c>
@@ -4867,7 +4866,7 @@
       <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>33003</v>
       </c>
       <c r="G30" t="s">
@@ -4899,7 +4898,7 @@
       <c r="E31" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>24567</v>
       </c>
       <c r="G31" t="s">
@@ -4928,7 +4927,7 @@
       <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>40459</v>
       </c>
       <c r="G32" t="s">
@@ -4960,7 +4959,7 @@
       <c r="E33" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>33109</v>
       </c>
       <c r="G33" t="s">
@@ -5006,7 +5005,7 @@
       <c r="E35" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>31056</v>
       </c>
       <c r="G35" t="s">
@@ -5032,10 +5031,10 @@
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5046,10 +5045,10 @@
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5060,10 +5059,10 @@
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5074,10 +5073,10 @@
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5088,10 +5087,10 @@
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5102,10 +5101,10 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5116,10 +5115,10 @@
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5130,10 +5129,10 @@
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5144,10 +5143,10 @@
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5158,10 +5157,10 @@
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5172,10 +5171,10 @@
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5186,10 +5185,10 @@
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5200,10 +5199,10 @@
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5214,10 +5213,10 @@
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5228,10 +5227,10 @@
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5242,10 +5241,10 @@
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5256,10 +5255,10 @@
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5270,10 +5269,10 @@
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5284,10 +5283,10 @@
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5298,10 +5297,10 @@
       <c r="B55">
         <v>54</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5312,10 +5311,10 @@
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7074,7 +7073,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>143</v>
       </c>
       <c r="B41">
@@ -7439,14 +7438,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9607B3C7-0F1B-4804-9E2C-3CABABF0ED9C}">
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/progetto_esame/consegna_luglio/ParteI/dati_popolamento.xlsx
+++ b/progetto_esame/consegna_luglio/ParteI/dati_popolamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigeit-my.sharepoint.com/personal/s5339413_studenti_unige_it/Documents/Lezioni/02 - Basi di dati/Repository/Basi-di-dati/progetto_esame/consegna_luglio/ParteI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{56879730-33B8-42C2-98E3-9CD4BF407C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39041D4-9DCC-48BB-B174-262BCB15A893}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{56879730-33B8-42C2-98E3-9CD4BF407C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE1EAF1-2791-4589-8832-E789CD63F4BD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" activeTab="7" xr2:uid="{7EAEA43A-9A7E-4F54-B5AC-FFDB57E33F01}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{7EAEA43A-9A7E-4F54-B5AC-FFDB57E33F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Quinta serata" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="contributi_brani" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Autori!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Autori!$A$1:$K$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Quinta serata'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="409">
   <si>
     <t>Gaia</t>
   </si>
@@ -265,1018 +266,1036 @@
     <t>Willie</t>
   </si>
   <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Toscano</t>
+  </si>
+  <si>
+    <t>Serena</t>
+  </si>
+  <si>
+    <t>Brancale</t>
+  </si>
+  <si>
+    <t>Shablo feat Guè, Joshua e Tormento</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Effe</t>
+  </si>
+  <si>
+    <t>Brunori</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Michielin</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Ghali</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>Lucio</t>
+  </si>
+  <si>
+    <t>Corsi</t>
+  </si>
+  <si>
+    <t>Massimo</t>
+  </si>
+  <si>
+    <t>Ranieri</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Tomba</t>
+  </si>
+  <si>
+    <t>Settembre</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Wyse</t>
+  </si>
+  <si>
+    <t>Maria Tomba</t>
+  </si>
+  <si>
+    <t>Alex Wyse</t>
+  </si>
+  <si>
+    <t>codBrano</t>
+  </si>
+  <si>
+    <t>titolo</t>
+  </si>
+  <si>
+    <t>L albero delle noci</t>
+  </si>
+  <si>
+    <t>Fango in Paradiso</t>
+  </si>
+  <si>
+    <t>Casa mia</t>
+  </si>
+  <si>
+    <t>Goodbye (voglio good vibes)</t>
+  </si>
+  <si>
+    <t>Vertebre</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Ordine uscita</t>
+  </si>
+  <si>
+    <t>Vale LP e Lil Jolie</t>
+  </si>
+  <si>
+    <t>Dimmi tu quando sei pronto per fare l'amore</t>
+  </si>
+  <si>
+    <t>genereMusicale</t>
+  </si>
+  <si>
+    <t>durata_seconds</t>
+  </si>
+  <si>
+    <t>Pop Rap</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Indie Pop</t>
+  </si>
+  <si>
+    <t>Cantautorato</t>
+  </si>
+  <si>
+    <t>Indie Rap</t>
+  </si>
+  <si>
+    <t>Jazz Pop</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Rap</t>
+  </si>
+  <si>
+    <t>Indie</t>
+  </si>
+  <si>
+    <t>Pop Rock</t>
+  </si>
+  <si>
+    <t>Se t innamori muori</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>The Sound of Silence</t>
+  </si>
+  <si>
+    <t>Tutto il resto è noia</t>
+  </si>
+  <si>
+    <t>La nuova stella di Broadway</t>
+  </si>
+  <si>
+    <t>If I Ain't Got You</t>
+  </si>
+  <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>Rossetto e caffè</t>
+  </si>
+  <si>
+    <t>L'emozione non ha voce</t>
+  </si>
+  <si>
+    <t>Yes I Know My Way</t>
+  </si>
+  <si>
+    <t>Io sono Francesco</t>
+  </si>
+  <si>
+    <t>Skyfall</t>
+  </si>
+  <si>
+    <t>La cura</t>
+  </si>
+  <si>
+    <t>Overdrive</t>
+  </si>
+  <si>
+    <t>L'estate sta finendo</t>
+  </si>
+  <si>
+    <t>Che cosa c'è</t>
+  </si>
+  <si>
+    <t>Il pescatore</t>
+  </si>
+  <si>
+    <t>A mano a mano / Folle città</t>
+  </si>
+  <si>
+    <t>Quando</t>
+  </si>
+  <si>
+    <t>Un tempo piccolo</t>
+  </si>
+  <si>
+    <t>L'anno che verrà</t>
+  </si>
+  <si>
+    <t>Bella stronza</t>
+  </si>
+  <si>
+    <t>Creuza de mä</t>
+  </si>
+  <si>
+    <t>Aspettando il sole / Amor de mi vida</t>
+  </si>
+  <si>
+    <t>La voglia, la pazzia</t>
+  </si>
+  <si>
+    <t>Nel blu, dipinto di blu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiori rosa fiori di pesco </t>
+  </si>
+  <si>
+    <t>Autore</t>
+  </si>
+  <si>
+    <t>Titolo</t>
+  </si>
+  <si>
+    <t>NomeGruppo</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>luogoNascita</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>biografia</t>
+  </si>
+  <si>
+    <t>edizioniPassate</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>CANTANTE</t>
+  </si>
+  <si>
+    <t>Cantautore e performer provocatorio.</t>
+  </si>
+  <si>
+    <t>Voce emergente.</t>
+  </si>
+  <si>
+    <t>Giovane trapper.</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cantautore lucano.</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Esordiente indie pop.</t>
+  </si>
+  <si>
+    <t>Duo indie pop milanese.</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Artista e icona di stile.</t>
+  </si>
+  <si>
+    <t>2017,2020,2024</t>
+  </si>
+  <si>
+    <t>Rapper e personaggio mediatico.</t>
+  </si>
+  <si>
+    <t>Bassano del Grappa</t>
+  </si>
+  <si>
+    <t>Cantautrice e producer.</t>
+  </si>
+  <si>
+    <t>2016,2017,2024</t>
+  </si>
+  <si>
+    <t>Carrara</t>
+  </si>
+  <si>
+    <t>Vincitore di Sanremo 2017.</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Pioniere della trap italiana.</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Cantautore toscano emergente.</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Icona della musica italiana.</t>
+  </si>
+  <si>
+    <t>1985,1990,1995</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Band rock italiano.</t>
+  </si>
+  <si>
+    <t>2011,2018,2023</t>
+  </si>
+  <si>
+    <t>2011,2012,2019</t>
+  </si>
+  <si>
+    <t>Cantautore e rapper milanese.</t>
+  </si>
+  <si>
+    <t>2022,2023,2024</t>
+  </si>
+  <si>
+    <t>Duo esordiente pop.</t>
+  </si>
+  <si>
+    <t>Cantautore e drammaturgo.</t>
+  </si>
+  <si>
+    <t>2007,2014,2023</t>
+  </si>
+  <si>
+    <t>Band pop rock.</t>
+  </si>
+  <si>
+    <t>2015,2020,2023</t>
+  </si>
+  <si>
+    <t>Trap emergente.</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Cantautore e rapper sarcastico.</t>
+  </si>
+  <si>
+    <t>Pinuccio Pirazzoli</t>
+  </si>
+  <si>
+    <t>Stefano Amato</t>
+  </si>
+  <si>
+    <t>Fabio Barnaba</t>
+  </si>
+  <si>
+    <t>Andrea Benassai</t>
+  </si>
+  <si>
+    <t>Daniel Bestonzo</t>
+  </si>
+  <si>
+    <t>Nicole Brancale</t>
+  </si>
+  <si>
+    <t>Diego Calvetti</t>
+  </si>
+  <si>
+    <t>Enzo Campagnoli</t>
+  </si>
+  <si>
+    <t>Valeriano Chiaravalle</t>
+  </si>
+  <si>
+    <t>Lucio Fabbri</t>
+  </si>
+  <si>
+    <t>Luca Faraone</t>
+  </si>
+  <si>
+    <t>Fabio Gurian</t>
+  </si>
+  <si>
+    <t>Enrico Melozzi</t>
+  </si>
+  <si>
+    <t>Giulio Nenna</t>
+  </si>
+  <si>
+    <t>Mirko Onofrio</t>
+  </si>
+  <si>
+    <t>Giovanni Pallotti</t>
+  </si>
+  <si>
+    <t>Carmelo Patti</t>
+  </si>
+  <si>
+    <t>Davide Rossi</t>
+  </si>
+  <si>
+    <t>Valter Sivilotti</t>
+  </si>
+  <si>
+    <t>Riccardo Zangirolami</t>
+  </si>
+  <si>
+    <t>Michele Michelangelo Zocca</t>
+  </si>
+  <si>
+    <t>DIRETTORE</t>
+  </si>
+  <si>
+    <t>codDirettore</t>
+  </si>
+  <si>
+    <t>ruolo</t>
+  </si>
+  <si>
+    <t>Stefano</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>Valeriano</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Enrico</t>
+  </si>
+  <si>
+    <t>Giulio</t>
+  </si>
+  <si>
+    <t>Mirko</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Carmelo</t>
+  </si>
+  <si>
+    <t>Davide</t>
+  </si>
+  <si>
+    <t>Valter</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Pirazzoli</t>
+  </si>
+  <si>
+    <t>Amato</t>
+  </si>
+  <si>
+    <t>Barnaba</t>
+  </si>
+  <si>
+    <t>Benassai</t>
+  </si>
+  <si>
+    <t>Bestonzo</t>
+  </si>
+  <si>
+    <t>Calvetti</t>
+  </si>
+  <si>
+    <t>Campagnoli</t>
+  </si>
+  <si>
+    <t>Chiaravalle</t>
+  </si>
+  <si>
+    <t>Fabbri</t>
+  </si>
+  <si>
+    <t>Faraone</t>
+  </si>
+  <si>
+    <t>Gurian</t>
+  </si>
+  <si>
+    <t>Melozzi</t>
+  </si>
+  <si>
+    <t>Nenna</t>
+  </si>
+  <si>
+    <t>Onofrio</t>
+  </si>
+  <si>
+    <t>Pallotti</t>
+  </si>
+  <si>
+    <t>Patti</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
+    <t>Sivilotti</t>
+  </si>
+  <si>
+    <t>Zangirolami</t>
+  </si>
+  <si>
+    <t>Pinuccio</t>
+  </si>
+  <si>
+    <t>Michelangelo Zocca</t>
+  </si>
+  <si>
+    <t>Luca Bianchi</t>
+  </si>
+  <si>
+    <t>Bianchi</t>
+  </si>
+  <si>
+    <t>Martina Rossi</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Alessandro Conti</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Conti</t>
+  </si>
+  <si>
+    <t>Giulia Ferraro</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>Ferraro</t>
+  </si>
+  <si>
+    <t>Matteo Romano</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Romano</t>
+  </si>
+  <si>
+    <t>Elisa Greco</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Greco</t>
+  </si>
+  <si>
+    <t>Andrea Moretti</t>
+  </si>
+  <si>
+    <t>Moretti</t>
+  </si>
+  <si>
+    <t>Francesca Costa</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Davide Rinaldi</t>
+  </si>
+  <si>
+    <t>Rinaldi</t>
+  </si>
+  <si>
+    <t>Chiara Leone</t>
+  </si>
+  <si>
+    <t>Chiara</t>
+  </si>
+  <si>
+    <t>Leone</t>
+  </si>
+  <si>
+    <t>Simone Galli</t>
+  </si>
+  <si>
+    <t>Galli</t>
+  </si>
+  <si>
+    <t>Valentina Bruno</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Riccardo Lombardi</t>
+  </si>
+  <si>
+    <t>Lombardi</t>
+  </si>
+  <si>
+    <t>Sara Vitale</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Vitale</t>
+  </si>
+  <si>
+    <t>Federico Marchetti</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Marchetti</t>
+  </si>
+  <si>
+    <t>Alice Sala</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Nicola Serra</t>
+  </si>
+  <si>
+    <t>Nicola</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Martina Donati</t>
+  </si>
+  <si>
+    <t>Donati</t>
+  </si>
+  <si>
+    <t>Stefano Villa</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Elena Parisi</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Marco Barone</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Barone</t>
+  </si>
+  <si>
+    <t>Laura Riva</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Riva</t>
+  </si>
+  <si>
+    <t>Giorgio Pellegrini</t>
+  </si>
+  <si>
+    <t>Giorgio</t>
+  </si>
+  <si>
+    <t>Pellegrini</t>
+  </si>
+  <si>
+    <t>Ilaria De Luca</t>
+  </si>
+  <si>
+    <t>Ilaria</t>
+  </si>
+  <si>
+    <t>De Luca</t>
+  </si>
+  <si>
+    <t>Fabio Amato</t>
+  </si>
+  <si>
+    <t>Marta Fabbri</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Lorenzo Bellini</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Bellini</t>
+  </si>
+  <si>
+    <t>Silvia Benedetti</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Benedetti</t>
+  </si>
+  <si>
+    <t>Alberto Martini</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>Chiara Sanna</t>
+  </si>
+  <si>
+    <t>Sanna</t>
+  </si>
+  <si>
+    <t>Emanuele Villa</t>
+  </si>
+  <si>
+    <t>Emanuele</t>
+  </si>
+  <si>
+    <t>Valeria Gatti</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Nicola De Santis</t>
+  </si>
+  <si>
+    <t>De Santis</t>
+  </si>
+  <si>
+    <t>Francesca Guerra</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Roberto Mancini</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Anna Ferri</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ferri</t>
+  </si>
+  <si>
+    <t>Matteo Corsi</t>
+  </si>
+  <si>
+    <t>Giulia Fiori</t>
+  </si>
+  <si>
+    <t>Fiori</t>
+  </si>
+  <si>
+    <t>Paolo Benedetti</t>
+  </si>
+  <si>
+    <t>Paolo</t>
+  </si>
+  <si>
+    <t>Francesco Barbieri</t>
+  </si>
+  <si>
+    <t>Barbieri</t>
+  </si>
+  <si>
+    <t>Alessia Romano</t>
+  </si>
+  <si>
+    <t>Alessia</t>
+  </si>
+  <si>
+    <t>Daniele Farina</t>
+  </si>
+  <si>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <t>Farina</t>
+  </si>
+  <si>
+    <t>Maria Leone</t>
+  </si>
+  <si>
+    <t>Gianluca Costa</t>
+  </si>
+  <si>
+    <t>Gianluca</t>
+  </si>
+  <si>
+    <t>Simona Rossi</t>
+  </si>
+  <si>
+    <t>Simona</t>
+  </si>
+  <si>
+    <t>Luca Ferraro</t>
+  </si>
+  <si>
+    <t>Chiara Conti</t>
+  </si>
+  <si>
+    <t>Fabio Rinaldi</t>
+  </si>
+  <si>
+    <t>Martina Parisi</t>
+  </si>
+  <si>
+    <t>Riccardo Bruno</t>
+  </si>
+  <si>
+    <t>Elena Moretti</t>
+  </si>
+  <si>
+    <t>Stefano Leone</t>
+  </si>
+  <si>
+    <t>Alice Lombardi</t>
+  </si>
+  <si>
+    <t>Marco Sala</t>
+  </si>
+  <si>
+    <t>Sara Serra</t>
+  </si>
+  <si>
+    <t>Federico Donati</t>
+  </si>
+  <si>
+    <t>Laura Pellegrini</t>
+  </si>
+  <si>
+    <t>Nicola Fabbri</t>
+  </si>
+  <si>
+    <t>Valentina Villa</t>
+  </si>
+  <si>
+    <t>Giorgio Gatti</t>
+  </si>
+  <si>
+    <t>Marta De Luca</t>
+  </si>
+  <si>
+    <t>Lorenzo Amato</t>
+  </si>
+  <si>
+    <t>COMPOSITORE</t>
+  </si>
+  <si>
+    <t>SCRITTORE</t>
+  </si>
+  <si>
+    <t>Guastalla</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Rapper e cantautore piemontese.</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Singer‑songwriter, vincitore Sanremo 2025.</t>
+  </si>
+  <si>
+    <t>Vigevano</t>
+  </si>
+  <si>
+    <t>Cantautrice e vincitrice Amici 23.</t>
+  </si>
+  <si>
+    <t>Cantautrice jazz‑soul italiana.</t>
+  </si>
+  <si>
+    <t>Trap rapper della Dark Polo Gang.</t>
+  </si>
+  <si>
+    <t>Pop‑singer, runner‑up Amici 2016 ora pop star.</t>
+  </si>
+  <si>
+    <t>Sas</t>
+  </si>
+  <si>
+    <t>Cantautore e polistrumentista.</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Cantautrice pop urbana, vincitrice Sanremo Giovani 2023.</t>
+  </si>
+  <si>
+    <t>Cantautrice e polistrumentista, X Factor, Sanremo.</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Rapper pop rap, vincitore Sanremo Nuove Proposte 2014.</t>
+  </si>
+  <si>
+    <t>Amdouni</t>
+  </si>
+  <si>
+    <t>Rapper e produttore</t>
+  </si>
+  <si>
+    <t>Desenzano del Garda</t>
+  </si>
+  <si>
+    <t>Cantautrice jazz‑pop in gara al Festival 2025.</t>
+  </si>
+  <si>
+    <t>Cantante e attore storico.</t>
+  </si>
+  <si>
+    <t>NomeCognomeUnito</t>
+  </si>
+  <si>
     <t>Peyote</t>
   </si>
   <si>
-    <t>Rose</t>
-  </si>
-  <si>
     <t>Villain</t>
   </si>
   <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Toscano</t>
-  </si>
-  <si>
-    <t>Serena</t>
-  </si>
-  <si>
-    <t>Brancale</t>
-  </si>
-  <si>
-    <t>Shablo feat Guè, Joshua e Tormento</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Effe</t>
-  </si>
-  <si>
-    <t>Brunori</t>
-  </si>
-  <si>
-    <t>Sas</t>
-  </si>
-  <si>
-    <t>Francesca</t>
-  </si>
-  <si>
-    <t>Michielin</t>
-  </si>
-  <si>
-    <t>Rocco</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Ghali</t>
-  </si>
-  <si>
-    <t>Joan</t>
-  </si>
-  <si>
-    <t>Thiele</t>
-  </si>
-  <si>
-    <t>Lucio</t>
-  </si>
-  <si>
-    <t>Corsi</t>
-  </si>
-  <si>
-    <t>Massimo</t>
-  </si>
-  <si>
-    <t>Ranieri</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Tomba</t>
-  </si>
-  <si>
-    <t>Settembre</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Wyse</t>
-  </si>
-  <si>
-    <t>Maria Tomba</t>
-  </si>
-  <si>
-    <t>Alex Wyse</t>
-  </si>
-  <si>
-    <t>codBrano</t>
-  </si>
-  <si>
-    <t>titolo</t>
-  </si>
-  <si>
-    <t>L albero delle noci</t>
-  </si>
-  <si>
-    <t>Fango in Paradiso</t>
-  </si>
-  <si>
-    <t>Casa mia</t>
-  </si>
-  <si>
-    <t>Goodbye (voglio good vibes)</t>
-  </si>
-  <si>
-    <t>Vertebre</t>
-  </si>
-  <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>Ordine uscita</t>
-  </si>
-  <si>
-    <t>Vale LP e Lil Jolie</t>
-  </si>
-  <si>
-    <t>Dimmi tu quando sei pronto per fare l'amore</t>
-  </si>
-  <si>
-    <t>genereMusicale</t>
-  </si>
-  <si>
-    <t>durata_seconds</t>
-  </si>
-  <si>
-    <t>Pop Rap</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>Indie Pop</t>
-  </si>
-  <si>
-    <t>Cantautorato</t>
-  </si>
-  <si>
-    <t>Indie Rap</t>
-  </si>
-  <si>
-    <t>Jazz Pop</t>
-  </si>
-  <si>
-    <t>Trap</t>
-  </si>
-  <si>
-    <t>Rap</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Pop Rock</t>
-  </si>
-  <si>
-    <t>Se t innamori muori</t>
-  </si>
-  <si>
-    <t>Angelo</t>
-  </si>
-  <si>
-    <t>The Sound of Silence</t>
-  </si>
-  <si>
-    <t>Tutto il resto è noia</t>
-  </si>
-  <si>
-    <t>La nuova stella di Broadway</t>
-  </si>
-  <si>
-    <t>If I Ain't Got You</t>
-  </si>
-  <si>
-    <t>Say Something</t>
-  </si>
-  <si>
-    <t>Rossetto e caffè</t>
-  </si>
-  <si>
-    <t>L'emozione non ha voce</t>
-  </si>
-  <si>
-    <t>Yes I Know My Way</t>
-  </si>
-  <si>
-    <t>Io sono Francesco</t>
-  </si>
-  <si>
-    <t>Skyfall</t>
-  </si>
-  <si>
-    <t>La cura</t>
-  </si>
-  <si>
-    <t>Overdrive</t>
-  </si>
-  <si>
-    <t>L'estate sta finendo</t>
-  </si>
-  <si>
-    <t>Che cosa c'è</t>
-  </si>
-  <si>
-    <t>Il pescatore</t>
-  </si>
-  <si>
-    <t>A mano a mano / Folle città</t>
-  </si>
-  <si>
-    <t>Quando</t>
-  </si>
-  <si>
-    <t>Un tempo piccolo</t>
-  </si>
-  <si>
-    <t>L'anno che verrà</t>
-  </si>
-  <si>
-    <t>Bella stronza</t>
-  </si>
-  <si>
-    <t>Creuza de mä</t>
-  </si>
-  <si>
-    <t>Aspettando il sole / Amor de mi vida</t>
-  </si>
-  <si>
-    <t>La voglia, la pazzia</t>
-  </si>
-  <si>
-    <t>Nel blu, dipinto di blu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiori rosa fiori di pesco </t>
-  </si>
-  <si>
-    <t>Autore</t>
-  </si>
-  <si>
-    <t>Titolo</t>
-  </si>
-  <si>
-    <t>NomeCognome_o_NomeGruppo</t>
-  </si>
-  <si>
-    <t>NomeGruppo</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>luogoNascita</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>biografia</t>
-  </si>
-  <si>
-    <t>edizioniPassate</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>CANTANTE</t>
-  </si>
-  <si>
-    <t>Cantautore e performer provocatorio.</t>
-  </si>
-  <si>
-    <t>Voce emergente.</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Giovane trapper.</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cantautore lucano.</t>
-  </si>
-  <si>
-    <t>Milano</t>
-  </si>
-  <si>
-    <t>Esordiente indie pop.</t>
-  </si>
-  <si>
-    <t>Duo indie pop milanese.</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Artista e icona di stile.</t>
-  </si>
-  <si>
-    <t>2017,2020,2024</t>
-  </si>
-  <si>
-    <t>Rapper e personaggio mediatico.</t>
-  </si>
-  <si>
-    <t>Bassano del Grappa</t>
-  </si>
-  <si>
-    <t>Cantautrice e producer.</t>
-  </si>
-  <si>
-    <t>2016,2017,2024</t>
-  </si>
-  <si>
-    <t>Carrara</t>
-  </si>
-  <si>
-    <t>Vincitore di Sanremo 2017.</t>
-  </si>
-  <si>
-    <t>Bari</t>
-  </si>
-  <si>
-    <t>Cantautrice di origini brasiliane.</t>
-  </si>
-  <si>
-    <t>Pioniere della trap italiana.</t>
-  </si>
-  <si>
-    <t>Voce storica del pop italiano.</t>
-  </si>
-  <si>
-    <t>1995,2010,2024</t>
-  </si>
-  <si>
-    <t>Cantautore vincitore di Amici.</t>
-  </si>
-  <si>
-    <t>2018,2022,2023</t>
-  </si>
-  <si>
-    <t>Firenze</t>
-  </si>
-  <si>
-    <t>Cantautrice italo-brasiliana.</t>
-  </si>
-  <si>
-    <t>Cantautore toscano emergente.</t>
-  </si>
-  <si>
-    <t>Catania</t>
-  </si>
-  <si>
-    <t>Icona della musica italiana.</t>
-  </si>
-  <si>
-    <t>1985,1990,1995</t>
-  </si>
-  <si>
-    <t>Nuova proposta emergente.</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Artista di lunga data.</t>
-  </si>
-  <si>
-    <t>Band rock italiano.</t>
-  </si>
-  <si>
-    <t>2011,2018,2023</t>
-  </si>
-  <si>
-    <t>Cantautrice e attrice.</t>
-  </si>
-  <si>
-    <t>2011,2012,2019</t>
-  </si>
-  <si>
-    <t>Nuova generazione del pop urbano.</t>
-  </si>
-  <si>
-    <t>Cantautore e rapper milanese.</t>
-  </si>
-  <si>
-    <t>2022,2023,2024</t>
-  </si>
-  <si>
-    <t>Rapper popolare meridionale.</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cantautrice e polistrumentista.</t>
-  </si>
-  <si>
-    <t>Esordiente vincitrice di contest.</t>
-  </si>
-  <si>
-    <t>Duo esordiente pop.</t>
-  </si>
-  <si>
-    <t>Produzione urban/trap.</t>
-  </si>
-  <si>
-    <t>Cantautore e drammaturgo.</t>
-  </si>
-  <si>
-    <t>2007,2014,2023</t>
-  </si>
-  <si>
-    <t>Band pop rock.</t>
-  </si>
-  <si>
-    <t>2015,2020,2023</t>
-  </si>
-  <si>
-    <t>Trap emergente.</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Cantautore e rapper sarcastico.</t>
-  </si>
-  <si>
-    <t>Pinuccio Pirazzoli</t>
-  </si>
-  <si>
-    <t>Stefano Amato</t>
-  </si>
-  <si>
-    <t>Fabio Barnaba</t>
-  </si>
-  <si>
-    <t>Andrea Benassai</t>
-  </si>
-  <si>
-    <t>Daniel Bestonzo</t>
-  </si>
-  <si>
-    <t>Nicole Brancale</t>
-  </si>
-  <si>
-    <t>Diego Calvetti</t>
-  </si>
-  <si>
-    <t>Enzo Campagnoli</t>
-  </si>
-  <si>
-    <t>Valeriano Chiaravalle</t>
-  </si>
-  <si>
-    <t>Lucio Fabbri</t>
-  </si>
-  <si>
-    <t>Luca Faraone</t>
-  </si>
-  <si>
-    <t>Fabio Gurian</t>
-  </si>
-  <si>
-    <t>Enrico Melozzi</t>
-  </si>
-  <si>
-    <t>Giulio Nenna</t>
-  </si>
-  <si>
-    <t>Mirko Onofrio</t>
-  </si>
-  <si>
-    <t>Giovanni Pallotti</t>
-  </si>
-  <si>
-    <t>Carmelo Patti</t>
-  </si>
-  <si>
-    <t>Davide Rossi</t>
-  </si>
-  <si>
-    <t>Valter Sivilotti</t>
-  </si>
-  <si>
-    <t>Riccardo Zangirolami</t>
-  </si>
-  <si>
-    <t>Michele Michelangelo Zocca</t>
-  </si>
-  <si>
-    <t>DIRETTORE</t>
-  </si>
-  <si>
-    <t>codDirettore</t>
-  </si>
-  <si>
-    <t>ruolo</t>
-  </si>
-  <si>
-    <t>Stefano</t>
-  </si>
-  <si>
-    <t>Fabio</t>
-  </si>
-  <si>
-    <t>Andrea</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Enzo</t>
-  </si>
-  <si>
-    <t>Valeriano</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Enrico</t>
-  </si>
-  <si>
-    <t>Giulio</t>
-  </si>
-  <si>
-    <t>Mirko</t>
-  </si>
-  <si>
-    <t>Giovanni</t>
-  </si>
-  <si>
-    <t>Carmelo</t>
-  </si>
-  <si>
-    <t>Davide</t>
-  </si>
-  <si>
-    <t>Valter</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Pirazzoli</t>
-  </si>
-  <si>
-    <t>Amato</t>
-  </si>
-  <si>
-    <t>Barnaba</t>
-  </si>
-  <si>
-    <t>Benassai</t>
-  </si>
-  <si>
-    <t>Bestonzo</t>
-  </si>
-  <si>
-    <t>Calvetti</t>
-  </si>
-  <si>
-    <t>Campagnoli</t>
-  </si>
-  <si>
-    <t>Chiaravalle</t>
-  </si>
-  <si>
-    <t>Fabbri</t>
-  </si>
-  <si>
-    <t>Faraone</t>
-  </si>
-  <si>
-    <t>Gurian</t>
-  </si>
-  <si>
-    <t>Melozzi</t>
-  </si>
-  <si>
-    <t>Nenna</t>
-  </si>
-  <si>
-    <t>Onofrio</t>
-  </si>
-  <si>
-    <t>Pallotti</t>
-  </si>
-  <si>
-    <t>Patti</t>
-  </si>
-  <si>
-    <t>Rossi</t>
-  </si>
-  <si>
-    <t>Sivilotti</t>
-  </si>
-  <si>
-    <t>Zangirolami</t>
-  </si>
-  <si>
-    <t>Pinuccio</t>
-  </si>
-  <si>
-    <t>Michelangelo Zocca</t>
-  </si>
-  <si>
-    <t>Luca Bianchi</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Martina Rossi</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Alessandro Conti</t>
-  </si>
-  <si>
-    <t>Alessandro</t>
-  </si>
-  <si>
-    <t>Conti</t>
-  </si>
-  <si>
-    <t>Giulia Ferraro</t>
-  </si>
-  <si>
-    <t>Giulia</t>
-  </si>
-  <si>
-    <t>Ferraro</t>
-  </si>
-  <si>
-    <t>Matteo Romano</t>
-  </si>
-  <si>
-    <t>Matteo</t>
-  </si>
-  <si>
-    <t>Romano</t>
-  </si>
-  <si>
-    <t>Elisa Greco</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Greco</t>
-  </si>
-  <si>
-    <t>Andrea Moretti</t>
-  </si>
-  <si>
-    <t>Moretti</t>
-  </si>
-  <si>
-    <t>Francesca Costa</t>
-  </si>
-  <si>
-    <t>Costa</t>
-  </si>
-  <si>
-    <t>Davide Rinaldi</t>
-  </si>
-  <si>
-    <t>Rinaldi</t>
-  </si>
-  <si>
-    <t>Chiara Leone</t>
-  </si>
-  <si>
-    <t>Chiara</t>
-  </si>
-  <si>
-    <t>Leone</t>
-  </si>
-  <si>
-    <t>Simone Galli</t>
-  </si>
-  <si>
-    <t>Galli</t>
-  </si>
-  <si>
-    <t>Valentina Bruno</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Riccardo Lombardi</t>
-  </si>
-  <si>
-    <t>Lombardi</t>
-  </si>
-  <si>
-    <t>Sara Vitale</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Vitale</t>
-  </si>
-  <si>
-    <t>Federico Marchetti</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Marchetti</t>
-  </si>
-  <si>
-    <t>Alice Sala</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Nicola Serra</t>
-  </si>
-  <si>
-    <t>Nicola</t>
-  </si>
-  <si>
-    <t>Serra</t>
-  </si>
-  <si>
-    <t>Martina Donati</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Stefano Villa</t>
-  </si>
-  <si>
-    <t>Villa</t>
-  </si>
-  <si>
-    <t>Elena Parisi</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Marco Barone</t>
-  </si>
-  <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Barone</t>
-  </si>
-  <si>
-    <t>Laura Riva</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Riva</t>
-  </si>
-  <si>
-    <t>Giorgio Pellegrini</t>
-  </si>
-  <si>
-    <t>Giorgio</t>
-  </si>
-  <si>
-    <t>Pellegrini</t>
-  </si>
-  <si>
-    <t>Ilaria De Luca</t>
-  </si>
-  <si>
-    <t>Ilaria</t>
-  </si>
-  <si>
-    <t>De Luca</t>
-  </si>
-  <si>
-    <t>Fabio Amato</t>
-  </si>
-  <si>
-    <t>Marta Fabbri</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Lorenzo Bellini</t>
-  </si>
-  <si>
-    <t>Lorenzo</t>
-  </si>
-  <si>
-    <t>Bellini</t>
-  </si>
-  <si>
-    <t>Silvia Benedetti</t>
-  </si>
-  <si>
-    <t>Silvia</t>
-  </si>
-  <si>
-    <t>Benedetti</t>
-  </si>
-  <si>
-    <t>Alberto Martini</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>Chiara Sanna</t>
-  </si>
-  <si>
-    <t>Sanna</t>
-  </si>
-  <si>
-    <t>Emanuele Villa</t>
-  </si>
-  <si>
-    <t>Emanuele</t>
-  </si>
-  <si>
-    <t>Valeria Gatti</t>
-  </si>
-  <si>
-    <t>Valeria</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>Nicola De Santis</t>
-  </si>
-  <si>
-    <t>De Santis</t>
-  </si>
-  <si>
-    <t>Francesca Guerra</t>
-  </si>
-  <si>
-    <t>Guerra</t>
-  </si>
-  <si>
-    <t>Roberto Mancini</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Anna Ferri</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Ferri</t>
-  </si>
-  <si>
-    <t>Matteo Corsi</t>
-  </si>
-  <si>
-    <t>Giulia Fiori</t>
-  </si>
-  <si>
-    <t>Fiori</t>
-  </si>
-  <si>
-    <t>Paolo Benedetti</t>
-  </si>
-  <si>
-    <t>Paolo</t>
-  </si>
-  <si>
-    <t>Francesco Barbieri</t>
-  </si>
-  <si>
-    <t>Barbieri</t>
-  </si>
-  <si>
-    <t>Alessia Romano</t>
-  </si>
-  <si>
-    <t>Alessia</t>
-  </si>
-  <si>
-    <t>Daniele Farina</t>
-  </si>
-  <si>
-    <t>Daniele</t>
-  </si>
-  <si>
-    <t>Farina</t>
-  </si>
-  <si>
-    <t>Maria Leone</t>
-  </si>
-  <si>
-    <t>Gianluca Costa</t>
-  </si>
-  <si>
-    <t>Gianluca</t>
-  </si>
-  <si>
-    <t>Simona Rossi</t>
-  </si>
-  <si>
-    <t>Simona</t>
-  </si>
-  <si>
-    <t>Luca Ferraro</t>
-  </si>
-  <si>
-    <t>Chiara Conti</t>
-  </si>
-  <si>
-    <t>Fabio Rinaldi</t>
-  </si>
-  <si>
-    <t>Martina Parisi</t>
-  </si>
-  <si>
-    <t>Riccardo Bruno</t>
-  </si>
-  <si>
-    <t>Elena Moretti</t>
-  </si>
-  <si>
-    <t>Stefano Leone</t>
-  </si>
-  <si>
-    <t>Alice Lombardi</t>
-  </si>
-  <si>
-    <t>Marco Sala</t>
-  </si>
-  <si>
-    <t>Sara Serra</t>
-  </si>
-  <si>
-    <t>Federico Donati</t>
-  </si>
-  <si>
-    <t>Laura Pellegrini</t>
-  </si>
-  <si>
-    <t>Nicola Fabbri</t>
-  </si>
-  <si>
-    <t>Valentina Villa</t>
-  </si>
-  <si>
-    <t>Giorgio Gatti</t>
-  </si>
-  <si>
-    <t>Marta De Luca</t>
-  </si>
-  <si>
-    <t>Lorenzo Amato</t>
-  </si>
-  <si>
-    <t>COMPOSITORE</t>
-  </si>
-  <si>
-    <t>SCRITTORE</t>
+    <t>Ghali Amdouni</t>
   </si>
 </sst>
 </file>
@@ -1312,12 +1331,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1333,6 +1349,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1654,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A72233A-DEE1-4A2E-8514-1CE34FA2275B}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,25 +1683,25 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1695,7 +1715,7 @@
         <v>52</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:D35">VLOOKUP(B2:B35,Autori!A1:D35,2,FALSE)</f>
+        <f t="array" ref="D2:D35">VLOOKUP(B2:B35,Autori!A1:B131,2,FALSE)</f>
         <v>24</v>
       </c>
       <c r="E2" cm="1">
@@ -1847,7 +1867,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -1881,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2082,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2221,7 +2241,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>21</v>
@@ -2265,6 +2285,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{7A72233A-DEE1-4A2E-8514-1CE34FA2275B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2274,7 +2295,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,19 +2308,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,10 +2331,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:D27">VLOOKUP(B2:B27,Autori!A1:D35,2,FALSE)</f>
+        <f t="array" ref="D2:D27">VLOOKUP(B2:B27,Autori!A1:B131,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E2" cm="1">
@@ -2329,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -2346,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -2363,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2380,7 +2401,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -2397,7 +2418,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>28</v>
@@ -2414,7 +2435,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2431,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2448,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2465,7 +2486,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -2482,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2499,7 +2520,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -2516,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2533,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2550,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2567,7 +2588,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -2584,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -2601,7 +2622,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>27</v>
@@ -2618,7 +2639,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>13</v>
@@ -2635,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -2652,7 +2673,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>29</v>
@@ -2669,7 +2690,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -2686,7 +2707,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24">
         <v>21</v>
@@ -2703,7 +2724,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -2720,7 +2741,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -2734,10 +2755,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -2756,7 +2777,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,19 +2790,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:D17">VLOOKUP(B2:B17,Autori!A1:D35,2,FALSE)</f>
+        <f t="array" ref="D2:D17">VLOOKUP(B2:B17,Autori!A1:B131,2,FALSE)</f>
         <v>32</v>
       </c>
       <c r="E2" cm="1">
@@ -2808,10 +2829,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>33</v>
@@ -2845,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -2910,7 +2931,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2930,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3068,7 +3089,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,19 +3102,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:D20">VLOOKUP((B2:B20),Autori!A1:D35,2,FALSE)</f>
+        <f t="array" ref="D2:D20">VLOOKUP((B2:B20),Autori!A1:B131,2,FALSE)</f>
         <v>33</v>
       </c>
       <c r="E2" cm="1">
@@ -3120,10 +3141,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -3137,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -3154,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -3431,7 +3452,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,19 +3466,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:D30">VLOOKUP((B2:B30),Autori!A1:D35,2,FALSE)</f>
+        <f t="array" ref="D2:D30">VLOOKUP((B2:B30),Autori!A1:B131,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E2" cm="1">
@@ -3521,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3705,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3776,7 +3797,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>21</v>
@@ -3964,15 +3985,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C782CE-074F-47B9-81AF-B4E6C0419813}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
@@ -3984,48 +4005,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -4034,371 +4055,196 @@
         <v>33065</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2">
-        <v>2019.2021999999999</v>
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1">
-        <v>35828</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3">
-        <v>2024</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>37685</v>
-      </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4">
-        <v>2024</v>
+        <v>328</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1">
-        <v>28396</v>
-      </c>
-      <c r="G5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5">
-        <v>2018.2023999999999</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>35897</v>
-      </c>
-      <c r="G6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6">
-        <v>2024</v>
+        <v>355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
       <c r="H7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7">
-        <v>2022.2022999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32996</v>
-      </c>
-      <c r="G8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1">
-        <v>32796</v>
-      </c>
-      <c r="G9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9">
-        <v>2020.2023999999999</v>
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="1">
-        <v>34755</v>
-      </c>
-      <c r="G10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1">
-        <v>30203</v>
-      </c>
-      <c r="G11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1">
-        <v>35702</v>
-      </c>
-      <c r="G12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12">
-        <v>2024</v>
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1">
-        <v>34110</v>
-      </c>
-      <c r="G13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13">
-        <v>2020.2022999999999</v>
+        <v>345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <v>26079</v>
-      </c>
-      <c r="G14" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
         <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
         <v>180</v>
@@ -4406,1974 +4252,2123 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>393</v>
       </c>
       <c r="F15" s="1">
-        <v>35053</v>
+        <v>28396</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
+        <v>394</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
         <v>181</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1">
-        <v>33741</v>
-      </c>
-      <c r="G16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16">
-        <v>2024</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1">
-        <v>35767</v>
-      </c>
-      <c r="G17" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" t="s">
-        <v>185</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17">
-        <v>2024</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1">
-        <v>22845</v>
-      </c>
-      <c r="G18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="1">
-        <v>36526</v>
-      </c>
-      <c r="G19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19">
-        <v>2024</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="1">
-        <v>18751</v>
-      </c>
-      <c r="G20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20">
-        <v>2010.2023999999999</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="1">
+        <v>36458</v>
+      </c>
+      <c r="G21" t="s">
+        <v>395</v>
+      </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>396</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" t="s">
-        <v>193</v>
+        <v>106</v>
+      </c>
+      <c r="K21">
+        <v>2023</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="1">
-        <v>29976</v>
-      </c>
-      <c r="G22" t="s">
-        <v>167</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" t="s">
-        <v>195</v>
+        <v>107</v>
+      </c>
+      <c r="K22">
+        <v>2022.2022999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1">
-        <v>37257</v>
-      </c>
-      <c r="G23" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23">
-        <v>2024</v>
+        <v>219</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1">
-        <v>34427</v>
-      </c>
-      <c r="G24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>198</v>
+        <v>357</v>
+      </c>
+      <c r="E24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="1">
-        <v>34659</v>
-      </c>
-      <c r="G25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" t="s">
-        <v>199</v>
-      </c>
-      <c r="J25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25">
-        <v>2014.2021999999999</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="1">
-        <v>35009</v>
-      </c>
-      <c r="G26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26">
-        <v>2023</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="1">
-        <v>36814</v>
-      </c>
-      <c r="G27" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" t="s">
-        <v>202</v>
-      </c>
-      <c r="J27" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27">
-        <v>2024</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>369</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="1">
-        <v>34420</v>
-      </c>
-      <c r="G28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" t="s">
-        <v>194</v>
-      </c>
-      <c r="J28" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28">
-        <v>2022.2023999999999</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="H29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K29">
-        <v>2024</v>
+        <v>304</v>
+      </c>
+      <c r="E29" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="1">
-        <v>33003</v>
-      </c>
-      <c r="G30" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30">
-        <v>2023</v>
+        <v>269</v>
+      </c>
+      <c r="E30" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>269</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="1">
-        <v>24567</v>
-      </c>
-      <c r="G31" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1">
-        <v>40459</v>
+        <v>32996</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>392</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" t="s">
-        <v>208</v>
+        <v>106</v>
+      </c>
+      <c r="K32">
+        <v>2024</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>333</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1">
-        <v>33109</v>
-      </c>
-      <c r="G33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33">
-        <v>2023</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s">
-        <v>157</v>
+        <v>333</v>
+      </c>
+      <c r="E34" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="1">
-        <v>31056</v>
-      </c>
-      <c r="G35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35">
-        <v>2023</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>254</v>
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>256</v>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>257</v>
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>258</v>
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E41" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>259</v>
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>260</v>
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1">
+        <v>32796</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>261</v>
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
       <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>262</v>
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>263</v>
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>264</v>
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1">
+        <v>34755</v>
+      </c>
+      <c r="G47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" t="s">
+        <v>397</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>2014.2021999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1">
+        <v>30203</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>35702</v>
+      </c>
+      <c r="G50" t="s">
+        <v>383</v>
+      </c>
+      <c r="H50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" t="s">
+        <v>156</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="1">
+        <v>34110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
+        <v>25959</v>
+      </c>
+      <c r="G53" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1">
+        <v>35053</v>
+      </c>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K62">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="1">
+        <v>33502</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63">
+        <v>2022.2023999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
         <v>224</v>
       </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="E68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" t="s">
+        <v>184</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+      <c r="K71">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="1">
+        <v>19163</v>
+      </c>
+      <c r="G73" t="s">
+        <v>175</v>
+      </c>
+      <c r="H73" t="s">
+        <v>153</v>
+      </c>
+      <c r="I73" t="s">
+        <v>165</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+      <c r="K73">
+        <v>2020.2023999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="1">
+        <v>40459</v>
+      </c>
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+      <c r="H77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" t="s">
+        <v>187</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>320</v>
+      </c>
+      <c r="E78" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>367</v>
+      </c>
+      <c r="B81">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="1">
+        <v>18751</v>
+      </c>
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" t="s">
+        <v>404</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>347</v>
+      </c>
+      <c r="B84">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>228</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>230</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>275</v>
-      </c>
-      <c r="B57">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>277</v>
-      </c>
-      <c r="B58">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B59">
-        <v>59</v>
-      </c>
-      <c r="D59" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>282</v>
-      </c>
-      <c r="B60">
-        <v>60</v>
-      </c>
-      <c r="D60" t="s">
-        <v>283</v>
-      </c>
-      <c r="E60" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>285</v>
-      </c>
-      <c r="B61">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>286</v>
-      </c>
-      <c r="E61" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>289</v>
-      </c>
-      <c r="E62" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>291</v>
-      </c>
-      <c r="B63">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B64">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>295</v>
-      </c>
-      <c r="B65">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>297</v>
-      </c>
-      <c r="B66">
-        <v>66</v>
-      </c>
-      <c r="D66" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>300</v>
-      </c>
-      <c r="B67">
-        <v>67</v>
-      </c>
-      <c r="D67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68">
-        <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69">
-        <v>69</v>
-      </c>
-      <c r="D69" t="s">
-        <v>252</v>
-      </c>
-      <c r="E69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70">
-        <v>70</v>
-      </c>
-      <c r="D70" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>310</v>
-      </c>
-      <c r="B71">
-        <v>71</v>
-      </c>
-      <c r="D71" t="s">
-        <v>311</v>
-      </c>
-      <c r="E71" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72">
-        <v>72</v>
-      </c>
-      <c r="D72" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>316</v>
-      </c>
-      <c r="B73">
-        <v>73</v>
-      </c>
-      <c r="D73" t="s">
-        <v>317</v>
-      </c>
-      <c r="E73" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>319</v>
-      </c>
-      <c r="B74">
-        <v>74</v>
-      </c>
-      <c r="D74" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>321</v>
-      </c>
-      <c r="B75">
-        <v>75</v>
-      </c>
-      <c r="D75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E75" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>323</v>
-      </c>
-      <c r="B76">
-        <v>76</v>
-      </c>
-      <c r="D76" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>326</v>
-      </c>
-      <c r="B77">
-        <v>77</v>
-      </c>
-      <c r="D77" t="s">
-        <v>327</v>
-      </c>
-      <c r="E77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>329</v>
-      </c>
-      <c r="B78">
-        <v>78</v>
-      </c>
-      <c r="D78" t="s">
-        <v>330</v>
-      </c>
-      <c r="E78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79">
-        <v>79</v>
-      </c>
-      <c r="D79" t="s">
-        <v>333</v>
-      </c>
-      <c r="E79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>335</v>
-      </c>
-      <c r="B80">
-        <v>80</v>
-      </c>
-      <c r="D80" t="s">
-        <v>336</v>
-      </c>
-      <c r="E80" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>338</v>
-      </c>
-      <c r="B81">
-        <v>81</v>
-      </c>
-      <c r="D81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82">
+      <c r="E84" t="s">
         <v>82</v>
       </c>
-      <c r="D82" t="s">
-        <v>340</v>
-      </c>
-      <c r="E82" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>341</v>
-      </c>
-      <c r="B83">
-        <v>83</v>
-      </c>
-      <c r="D83" t="s">
-        <v>342</v>
-      </c>
-      <c r="E83" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>344</v>
-      </c>
-      <c r="B84">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>345</v>
-      </c>
-      <c r="E84" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>347</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" t="s">
+        <v>153</v>
+      </c>
+      <c r="I89" t="s">
+        <v>185</v>
+      </c>
+      <c r="J89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91">
+        <v>125</v>
+      </c>
+      <c r="D91" t="s">
+        <v>297</v>
+      </c>
+      <c r="E91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>296</v>
+      </c>
+      <c r="B93">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <v>29976</v>
+      </c>
+      <c r="G95" t="s">
+        <v>162</v>
+      </c>
+      <c r="H95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I95" t="s">
+        <v>158</v>
+      </c>
+      <c r="J95" t="s">
+        <v>113</v>
+      </c>
+      <c r="K95">
+        <v>2018.2023999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="1">
+        <v>37016</v>
+      </c>
+      <c r="G96" t="s">
+        <v>386</v>
+      </c>
+      <c r="H96" t="s">
+        <v>153</v>
+      </c>
+      <c r="I96" t="s">
+        <v>387</v>
+      </c>
+      <c r="J96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>350</v>
       </c>
-      <c r="B86">
-        <v>86</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>351</v>
+      </c>
+      <c r="E97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B98">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>351</v>
+      </c>
+      <c r="E98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99">
+        <v>35</v>
+      </c>
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100">
+        <v>107</v>
+      </c>
+      <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101">
+        <v>69</v>
+      </c>
+      <c r="D101" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102">
+        <v>54</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <v>34443</v>
+      </c>
+      <c r="G103" t="s">
+        <v>159</v>
+      </c>
+      <c r="H103" t="s">
+        <v>153</v>
+      </c>
+      <c r="I103" t="s">
+        <v>154</v>
+      </c>
+      <c r="J103" t="s">
+        <v>106</v>
+      </c>
+      <c r="K103">
+        <v>2019.2021999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104">
+        <v>91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>342</v>
+      </c>
+      <c r="E104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105">
+        <v>127</v>
+      </c>
+      <c r="D105" t="s">
+        <v>342</v>
+      </c>
+      <c r="E105" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="1">
+        <v>34659</v>
+      </c>
+      <c r="G106" t="s">
+        <v>398</v>
+      </c>
+      <c r="H106" t="s">
+        <v>153</v>
+      </c>
+      <c r="I106" t="s">
+        <v>399</v>
+      </c>
+      <c r="J106" t="s">
+        <v>105</v>
+      </c>
+      <c r="K106">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107" t="s">
+        <v>407</v>
+      </c>
+      <c r="F107" s="1">
+        <v>32709</v>
+      </c>
+      <c r="G107" t="s">
+        <v>159</v>
+      </c>
+      <c r="H107" t="s">
+        <v>153</v>
+      </c>
+      <c r="I107" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" t="s">
+        <v>111</v>
+      </c>
+      <c r="K107">
+        <v>2020.2022999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" t="s">
         <v>298</v>
       </c>
-      <c r="E86" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>352</v>
-      </c>
-      <c r="B87">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109">
+        <v>70</v>
+      </c>
+      <c r="D109" t="s">
+        <v>288</v>
+      </c>
+      <c r="E109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="1">
+        <v>38726</v>
+      </c>
+      <c r="G110" t="s">
+        <v>388</v>
+      </c>
+      <c r="H110" t="s">
+        <v>153</v>
+      </c>
+      <c r="I110" t="s">
+        <v>389</v>
+      </c>
+      <c r="J110" t="s">
+        <v>106</v>
+      </c>
+      <c r="K110">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="1">
+        <v>32632</v>
+      </c>
+      <c r="G111" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" t="s">
+        <v>153</v>
+      </c>
+      <c r="I111" t="s">
+        <v>390</v>
+      </c>
+      <c r="J111" t="s">
+        <v>106</v>
+      </c>
+      <c r="K111">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>87</v>
       </c>
-      <c r="D87" t="s">
-        <v>353</v>
-      </c>
-      <c r="E87" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>354</v>
-      </c>
-      <c r="B88">
+      <c r="B112">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>87</v>
+      </c>
+      <c r="H112" t="s">
+        <v>153</v>
+      </c>
+      <c r="I112" t="s">
+        <v>189</v>
+      </c>
+      <c r="J112" t="s">
+        <v>111</v>
+      </c>
+      <c r="K112">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" t="s">
+        <v>153</v>
+      </c>
+      <c r="I113" t="s">
+        <v>174</v>
+      </c>
+      <c r="J113" t="s">
+        <v>106</v>
+      </c>
+      <c r="K113">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>324</v>
+      </c>
+      <c r="B114">
+        <v>84</v>
+      </c>
+      <c r="D114" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>362</v>
+      </c>
+      <c r="B116">
+        <v>102</v>
+      </c>
+      <c r="D116" t="s">
+        <v>363</v>
+      </c>
+      <c r="E116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="1">
+        <v>28161</v>
+      </c>
+      <c r="G117" t="s">
+        <v>162</v>
+      </c>
+      <c r="H117" t="s">
+        <v>153</v>
+      </c>
+      <c r="I117" t="s">
+        <v>163</v>
+      </c>
+      <c r="J117" t="s">
+        <v>106</v>
+      </c>
+      <c r="K117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118">
+        <v>67</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120">
+        <v>109</v>
+      </c>
+      <c r="D120" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121">
+        <v>75</v>
+      </c>
+      <c r="D121" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+      <c r="G122" t="s">
+        <v>175</v>
+      </c>
+      <c r="H122" t="s">
+        <v>153</v>
+      </c>
+      <c r="I122" t="s">
+        <v>176</v>
+      </c>
+      <c r="J122" t="s">
+        <v>106</v>
+      </c>
+      <c r="K122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" s="1">
+        <v>33375</v>
+      </c>
+      <c r="G123" t="s">
+        <v>162</v>
+      </c>
+      <c r="H123" t="s">
+        <v>153</v>
+      </c>
+      <c r="I123" t="s">
+        <v>391</v>
+      </c>
+      <c r="J123" t="s">
+        <v>106</v>
+      </c>
+      <c r="K123">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="1">
+        <v>31056</v>
+      </c>
+      <c r="G124" t="s">
+        <v>190</v>
+      </c>
+      <c r="H124" t="s">
+        <v>153</v>
+      </c>
+      <c r="I124" t="s">
+        <v>191</v>
+      </c>
+      <c r="J124" t="s">
+        <v>109</v>
+      </c>
+      <c r="K124">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>282</v>
+      </c>
+      <c r="B125">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126">
+        <v>116</v>
+      </c>
+      <c r="D126" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127">
         <v>88</v>
       </c>
-      <c r="D88" t="s">
-        <v>355</v>
-      </c>
-      <c r="E88" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>357</v>
-      </c>
-      <c r="B89">
-        <v>89</v>
-      </c>
-      <c r="D89" t="s">
-        <v>317</v>
-      </c>
-      <c r="E89" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>359</v>
-      </c>
-      <c r="B90">
-        <v>90</v>
-      </c>
-      <c r="D90" t="s">
-        <v>77</v>
-      </c>
-      <c r="E90" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>361</v>
-      </c>
-      <c r="B91">
-        <v>91</v>
-      </c>
-      <c r="D91" t="s">
-        <v>362</v>
-      </c>
-      <c r="E91" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>364</v>
-      </c>
-      <c r="B92">
-        <v>92</v>
-      </c>
-      <c r="D92" t="s">
-        <v>365</v>
-      </c>
-      <c r="E92" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>367</v>
-      </c>
-      <c r="B93">
-        <v>93</v>
-      </c>
-      <c r="D93" t="s">
-        <v>286</v>
-      </c>
-      <c r="E93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94">
-        <v>94</v>
-      </c>
-      <c r="D94" t="s">
-        <v>283</v>
-      </c>
-      <c r="E94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>370</v>
-      </c>
-      <c r="B95">
-        <v>95</v>
-      </c>
-      <c r="D95" t="s">
-        <v>371</v>
-      </c>
-      <c r="E95" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>288</v>
-      </c>
-      <c r="B96">
-        <v>96</v>
-      </c>
-      <c r="D96" t="s">
-        <v>289</v>
-      </c>
-      <c r="E96" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>372</v>
-      </c>
-      <c r="B97">
-        <v>97</v>
-      </c>
-      <c r="D97" t="s">
-        <v>56</v>
-      </c>
-      <c r="E97" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>374</v>
-      </c>
-      <c r="B98">
-        <v>98</v>
-      </c>
-      <c r="D98" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>376</v>
-      </c>
-      <c r="B99">
-        <v>99</v>
-      </c>
-      <c r="D99" t="s">
-        <v>377</v>
-      </c>
-      <c r="E99" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>379</v>
-      </c>
-      <c r="B100">
-        <v>100</v>
-      </c>
-      <c r="D100" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>380</v>
-      </c>
-      <c r="B101">
-        <v>101</v>
-      </c>
-      <c r="D101" t="s">
-        <v>381</v>
-      </c>
-      <c r="E101" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>382</v>
-      </c>
-      <c r="B102">
-        <v>102</v>
-      </c>
-      <c r="D102" t="s">
-        <v>383</v>
-      </c>
-      <c r="E102" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>384</v>
-      </c>
-      <c r="B103">
-        <v>103</v>
-      </c>
-      <c r="D103" t="s">
-        <v>244</v>
-      </c>
-      <c r="E103" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="D127" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+      <c r="B128">
+        <v>124</v>
+      </c>
+      <c r="D128" t="s">
+        <v>335</v>
+      </c>
+      <c r="E128" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>223</v>
+      </c>
+      <c r="E129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>231</v>
+      </c>
+      <c r="E130" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" t="s">
+        <v>406</v>
+      </c>
+      <c r="F131" s="1">
+        <v>31287</v>
+      </c>
+      <c r="G131" t="s">
+        <v>152</v>
+      </c>
+      <c r="H131" t="s">
+        <v>153</v>
+      </c>
+      <c r="I131" t="s">
         <v>385</v>
       </c>
-      <c r="B104">
-        <v>104</v>
-      </c>
-      <c r="D104" t="s">
-        <v>298</v>
-      </c>
-      <c r="E104" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>386</v>
-      </c>
-      <c r="B105">
-        <v>105</v>
-      </c>
-      <c r="D105" t="s">
-        <v>237</v>
-      </c>
-      <c r="E105" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>387</v>
-      </c>
-      <c r="B106">
+      <c r="J131" t="s">
         <v>106</v>
       </c>
-      <c r="D106" t="s">
-        <v>278</v>
-      </c>
-      <c r="E106" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>388</v>
-      </c>
-      <c r="B107">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>252</v>
-      </c>
-      <c r="E107" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>389</v>
-      </c>
-      <c r="B108">
-        <v>108</v>
-      </c>
-      <c r="D108" t="s">
-        <v>324</v>
-      </c>
-      <c r="E108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>390</v>
-      </c>
-      <c r="B109">
-        <v>109</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
-      </c>
-      <c r="E109" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>391</v>
-      </c>
-      <c r="B110">
-        <v>110</v>
-      </c>
-      <c r="D110" t="s">
-        <v>314</v>
-      </c>
-      <c r="E110" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>392</v>
-      </c>
-      <c r="B111">
-        <v>111</v>
-      </c>
-      <c r="D111" t="s">
-        <v>327</v>
-      </c>
-      <c r="E111" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>393</v>
-      </c>
-      <c r="B112">
-        <v>112</v>
-      </c>
-      <c r="D112" t="s">
-        <v>308</v>
-      </c>
-      <c r="E112" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>394</v>
-      </c>
-      <c r="B113">
-        <v>113</v>
-      </c>
-      <c r="D113" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>395</v>
-      </c>
-      <c r="B114">
-        <v>114</v>
-      </c>
-      <c r="D114" t="s">
-        <v>330</v>
-      </c>
-      <c r="E114" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>396</v>
-      </c>
-      <c r="B115">
-        <v>115</v>
-      </c>
-      <c r="D115" t="s">
-        <v>317</v>
-      </c>
-      <c r="E115" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>397</v>
-      </c>
-      <c r="B116">
-        <v>116</v>
-      </c>
-      <c r="D116" t="s">
-        <v>303</v>
-      </c>
-      <c r="E116" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>398</v>
-      </c>
-      <c r="B117">
-        <v>117</v>
-      </c>
-      <c r="D117" t="s">
-        <v>333</v>
-      </c>
-      <c r="E117" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>399</v>
-      </c>
-      <c r="B118">
-        <v>118</v>
-      </c>
-      <c r="D118" t="s">
-        <v>340</v>
-      </c>
-      <c r="E118" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>400</v>
-      </c>
-      <c r="B119">
-        <v>119</v>
-      </c>
-      <c r="D119" t="s">
-        <v>342</v>
-      </c>
-      <c r="E119" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>344</v>
-      </c>
-      <c r="B120">
-        <v>120</v>
-      </c>
-      <c r="D120" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>347</v>
-      </c>
-      <c r="B121">
-        <v>121</v>
-      </c>
-      <c r="D121" t="s">
-        <v>348</v>
-      </c>
-      <c r="E121" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>350</v>
-      </c>
-      <c r="B122">
-        <v>122</v>
-      </c>
-      <c r="D122" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>352</v>
-      </c>
-      <c r="B123">
-        <v>123</v>
-      </c>
-      <c r="D123" t="s">
-        <v>353</v>
-      </c>
-      <c r="E123" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>354</v>
-      </c>
-      <c r="B124">
-        <v>124</v>
-      </c>
-      <c r="D124" t="s">
-        <v>355</v>
-      </c>
-      <c r="E124" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>357</v>
-      </c>
-      <c r="B125">
-        <v>125</v>
-      </c>
-      <c r="D125" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>359</v>
-      </c>
-      <c r="B126">
-        <v>126</v>
-      </c>
-      <c r="D126" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127">
-        <v>127</v>
-      </c>
-      <c r="D127" t="s">
-        <v>362</v>
-      </c>
-      <c r="E127" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>364</v>
-      </c>
-      <c r="B128">
-        <v>128</v>
-      </c>
-      <c r="D128" t="s">
-        <v>365</v>
-      </c>
-      <c r="E128" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>367</v>
-      </c>
-      <c r="B129">
-        <v>129</v>
-      </c>
-      <c r="D129" t="s">
-        <v>286</v>
-      </c>
-      <c r="E129" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>368</v>
-      </c>
-      <c r="B130">
-        <v>130</v>
-      </c>
-      <c r="D130" t="s">
-        <v>283</v>
-      </c>
-      <c r="E130" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>370</v>
-      </c>
-      <c r="B131">
-        <v>131</v>
-      </c>
-      <c r="D131" t="s">
-        <v>371</v>
-      </c>
-      <c r="E131" t="s">
-        <v>346</v>
+      <c r="K131">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{11C782CE-074F-47B9-81AF-B4E6C0419813}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6382,7 +6377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F300F29-1569-4090-8EEC-6A17862B530F}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6394,19 +6391,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6420,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>185</v>
@@ -6437,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -6454,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -6462,7 +6459,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6471,7 +6468,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>205</v>
@@ -6488,7 +6485,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>190</v>
@@ -6505,7 +6502,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>195</v>
@@ -6522,7 +6519,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>215</v>
@@ -6539,7 +6536,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>180</v>
@@ -6556,7 +6553,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -6573,7 +6570,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>220</v>
@@ -6590,7 +6587,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>180</v>
@@ -6607,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>210</v>
@@ -6624,7 +6621,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>205</v>
@@ -6641,7 +6638,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>230</v>
@@ -6658,7 +6655,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>225</v>
@@ -6675,7 +6672,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>200</v>
@@ -6692,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>210</v>
@@ -6709,7 +6706,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19">
         <v>210</v>
@@ -6726,7 +6723,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>205</v>
@@ -6743,7 +6740,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>195</v>
@@ -6751,7 +6748,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6760,7 +6757,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>200</v>
@@ -6777,7 +6774,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>190</v>
@@ -6794,7 +6791,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>205</v>
@@ -6802,7 +6799,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6811,7 +6808,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>215</v>
@@ -6828,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>210</v>
@@ -6836,7 +6833,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6845,7 +6842,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>205</v>
@@ -6862,7 +6859,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28">
         <v>185</v>
@@ -6879,7 +6876,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>220</v>
@@ -6896,7 +6893,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E30">
         <v>200</v>
@@ -6913,7 +6910,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>190</v>
@@ -6921,7 +6918,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6930,7 +6927,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>180</v>
@@ -6938,7 +6935,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6947,7 +6944,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E33">
         <v>195</v>
@@ -6955,7 +6952,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6964,7 +6961,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>220</v>
@@ -6972,7 +6969,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -6981,7 +6978,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>190</v>
@@ -6989,7 +6986,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -6998,7 +6995,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>210</v>
@@ -7006,7 +7003,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7015,7 +7012,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>215</v>
@@ -7023,7 +7020,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7032,7 +7029,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38">
         <v>230</v>
@@ -7040,7 +7037,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7049,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E39">
         <v>210</v>
@@ -7057,7 +7054,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7066,7 +7063,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E40">
         <v>210</v>
@@ -7074,7 +7071,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7083,7 +7080,7 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>200</v>
@@ -7091,7 +7088,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7100,7 +7097,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42">
         <v>210</v>
@@ -7108,7 +7105,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7117,7 +7114,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>215</v>
@@ -7125,7 +7122,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7134,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -7142,7 +7139,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -7151,7 +7148,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>220</v>
@@ -7159,7 +7156,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -7168,7 +7165,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E46">
         <v>210</v>
@@ -7176,7 +7173,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -7185,7 +7182,7 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47">
         <v>210</v>
@@ -7193,7 +7190,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7202,7 +7199,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48">
         <v>210</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7219,7 +7216,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49">
         <v>220</v>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7236,7 +7233,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50">
         <v>215</v>
@@ -7244,7 +7241,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -7253,7 +7250,7 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>200</v>
@@ -7261,7 +7258,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7270,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52">
         <v>195</v>
@@ -7278,7 +7275,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -7287,7 +7284,7 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>200</v>
@@ -7295,7 +7292,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -7304,7 +7301,7 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E54">
         <v>210</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -7321,7 +7318,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E55">
         <v>215</v>
@@ -7329,7 +7326,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -7338,7 +7335,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E56">
         <v>210</v>
@@ -7346,7 +7343,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -7355,7 +7352,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E57">
         <v>180</v>
@@ -7363,7 +7360,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -7372,7 +7369,7 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E58">
         <v>215</v>
@@ -7380,7 +7377,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -7389,7 +7386,7 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E59">
         <v>205</v>
@@ -7397,7 +7394,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -7406,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E60">
         <v>210</v>
@@ -7414,7 +7411,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -7423,7 +7420,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E61">
         <v>210</v>
@@ -7438,8 +7435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9607B3C7-0F1B-4804-9E2C-3CABABF0ED9C}">
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7451,13 +7448,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,7 +7465,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,7 +7476,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,7 +7487,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7501,7 +7498,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,7 +7509,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,7 +7520,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,7 +7531,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,7 +7542,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7556,7 +7553,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,7 +7564,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7578,7 +7575,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,7 +7586,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7600,7 +7597,7 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,7 +7608,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7622,7 +7619,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,7 +7630,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7644,7 +7641,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7655,7 +7652,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7666,7 +7663,7 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7688,7 +7685,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,7 +7696,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,7 +7707,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,7 +7718,7 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,7 +7729,7 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7743,7 +7740,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7754,7 +7751,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7765,7 +7762,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7776,7 +7773,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7787,7 +7784,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7798,7 +7795,7 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,7 +7806,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,7 +7817,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,7 +7828,7 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7842,7 +7839,7 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,7 +7850,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7864,7 +7861,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,7 +7872,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,7 +7883,7 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,7 +7894,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,7 +7905,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,7 +7916,7 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,7 +7927,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7941,7 +7938,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,7 +7949,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,7 +7960,7 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,7 +7971,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,7 +7982,7 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,7 +7993,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,7 +8004,7 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,7 +8015,7 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,7 +8026,7 @@
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,7 +8037,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,7 +8048,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,7 +8059,7 @@
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,7 +8070,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,7 +8081,7 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,7 +8092,7 @@
         <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,7 +8103,7 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,7 +8114,7 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,7 +8125,7 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,7 +8136,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,7 +8147,7 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8161,7 +8158,7 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -8172,7 +8169,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,7 +8180,7 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,7 +8191,7 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8205,7 +8202,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,7 +8213,7 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,7 +8224,7 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,7 +8235,7 @@
         <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,7 +8246,7 @@
         <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,7 +8257,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,7 +8268,7 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,7 +8279,7 @@
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,7 +8290,7 @@
         <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,7 +8301,7 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,7 +8312,7 @@
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,7 +8323,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,7 +8334,7 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,7 +8345,7 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,7 +8356,7 @@
         <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,7 +8378,7 @@
         <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,7 +8389,7 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,7 +8400,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,7 +8411,7 @@
         <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,7 +8422,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,7 +8433,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,7 +8444,7 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,7 +8455,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,7 +8466,7 @@
         <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,7 +8477,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,7 +8488,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,7 +8499,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,7 +8510,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,7 +8521,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,7 +8532,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,7 +8543,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,7 +8554,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,7 +8565,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,7 +8576,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,7 +8587,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,7 +8598,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,7 +8609,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,7 +8620,7 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,7 +8631,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,7 +8642,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,7 +8653,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,7 +8664,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,7 +8675,7 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,7 +8686,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,7 +8697,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,7 +8708,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,7 +8719,7 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,7 +8730,7 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,7 +8741,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,7 +8752,7 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,7 +8763,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,7 +8774,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,7 +8785,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,7 +8796,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,7 +8807,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,7 +8818,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,7 +8829,7 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,7 +8840,7 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,7 +8851,7 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,7 +8862,7 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,7 +8873,7 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,7 +8884,7 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,7 +8895,7 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,7 +8906,7 @@
         <v>57</v>
       </c>
       <c r="C133" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -8920,7 +8917,7 @@
         <v>58</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,7 +8928,7 @@
         <v>59</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,7 +8939,7 @@
         <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,7 +8950,7 @@
         <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,7 +8961,7 @@
         <v>62</v>
       </c>
       <c r="C138" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,7 +8972,7 @@
         <v>63</v>
       </c>
       <c r="C139" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,7 +8983,7 @@
         <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,7 +8994,7 @@
         <v>65</v>
       </c>
       <c r="C141" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,7 +9005,7 @@
         <v>66</v>
       </c>
       <c r="C142" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,7 +9016,7 @@
         <v>67</v>
       </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,7 +9027,7 @@
         <v>68</v>
       </c>
       <c r="C144" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,7 +9038,7 @@
         <v>69</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,7 +9049,7 @@
         <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,7 +9060,7 @@
         <v>71</v>
       </c>
       <c r="C147" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,7 +9071,7 @@
         <v>72</v>
       </c>
       <c r="C148" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,7 +9082,7 @@
         <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,7 +9093,7 @@
         <v>74</v>
       </c>
       <c r="C150" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,7 +9104,7 @@
         <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,7 +9115,7 @@
         <v>76</v>
       </c>
       <c r="C152" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,7 +9126,7 @@
         <v>77</v>
       </c>
       <c r="C153" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,7 +9137,7 @@
         <v>78</v>
       </c>
       <c r="C154" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,7 +9148,7 @@
         <v>79</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,7 +9159,7 @@
         <v>80</v>
       </c>
       <c r="C156" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,7 +9170,7 @@
         <v>81</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,7 +9181,7 @@
         <v>82</v>
       </c>
       <c r="C158" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,7 +9192,7 @@
         <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,7 +9203,7 @@
         <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,7 +9214,7 @@
         <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,7 +9225,7 @@
         <v>86</v>
       </c>
       <c r="C162" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,7 +9236,7 @@
         <v>87</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,7 +9247,7 @@
         <v>88</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,7 +9258,7 @@
         <v>89</v>
       </c>
       <c r="C165" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,7 +9269,7 @@
         <v>90</v>
       </c>
       <c r="C166" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,7 +9280,7 @@
         <v>91</v>
       </c>
       <c r="C167" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,7 +9291,7 @@
         <v>92</v>
       </c>
       <c r="C168" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,7 +9302,7 @@
         <v>93</v>
       </c>
       <c r="C169" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,7 +9313,7 @@
         <v>94</v>
       </c>
       <c r="C170" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,7 +9324,7 @@
         <v>95</v>
       </c>
       <c r="C171" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,7 +9335,7 @@
         <v>96</v>
       </c>
       <c r="C172" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,7 +9346,7 @@
         <v>97</v>
       </c>
       <c r="C173" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,7 +9357,7 @@
         <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,7 +9368,7 @@
         <v>99</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,7 +9379,7 @@
         <v>100</v>
       </c>
       <c r="C176" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,7 +9390,7 @@
         <v>101</v>
       </c>
       <c r="C177" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -9404,7 +9401,7 @@
         <v>102</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,7 +9412,7 @@
         <v>103</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,7 +9423,7 @@
         <v>104</v>
       </c>
       <c r="C180" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -9437,7 +9434,7 @@
         <v>105</v>
       </c>
       <c r="C181" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,7 +9445,7 @@
         <v>106</v>
       </c>
       <c r="C182" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,7 +9456,7 @@
         <v>107</v>
       </c>
       <c r="C183" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,7 +9467,7 @@
         <v>108</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,7 +9478,7 @@
         <v>109</v>
       </c>
       <c r="C185" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,7 +9489,7 @@
         <v>110</v>
       </c>
       <c r="C186" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,7 +9500,7 @@
         <v>111</v>
       </c>
       <c r="C187" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,7 +9511,7 @@
         <v>112</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,7 +9522,7 @@
         <v>113</v>
       </c>
       <c r="C189" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,7 +9533,7 @@
         <v>114</v>
       </c>
       <c r="C190" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,7 +9544,7 @@
         <v>115</v>
       </c>
       <c r="C191" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,7 +9555,7 @@
         <v>116</v>
       </c>
       <c r="C192" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +9566,7 @@
         <v>117</v>
       </c>
       <c r="C193" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
